--- a/Recycling/Met_rec/metrec_Max_target_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Max_target_Avg.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>59078.62275518186</v>
+        <v>59078.62275518187</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>211682.5044181576</v>
+        <v>211682.5044181577</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>725988.5786455828</v>
+        <v>725988.578645583</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4227,7 +4227,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1859543.682973827</v>
+        <v>1859543.682973828</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4755,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>818774.3147223983</v>
+        <v>818774.3147223982</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>791405.3239931304</v>
+        <v>791405.3239931302</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>932849.6529590311</v>
+        <v>932849.6529590308</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Max_target_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Max_target_Avg.xlsx
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0.4724601505287397</v>
+        <v>0.4724601505287396</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5.850388579693973</v>
+        <v>5.850388579693974</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6.884763890852647</v>
+        <v>6.884763890852649</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>27.3220297298861</v>
+        <v>27.32202972988609</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>13.57470378410824</v>
+        <v>13.57470378410825</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>46.64899273861412</v>
+        <v>46.6489927386141</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>78.95110005293489</v>
+        <v>78.95110005293486</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3688,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>68.83657384123028</v>
+        <v>68.83657384123026</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4868,7 +4868,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2023.434308850902</v>
+        <v>2023.434308850901</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5232,7 +5232,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>639.1986507096545</v>
+        <v>639.1986507096544</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6384,7 +6384,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>10062.23486769262</v>
+        <v>10062.23486769261</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6456,7 +6456,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5758.674129440223</v>
+        <v>5758.674129440224</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6748,7 +6748,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>24278.63799663738</v>
+        <v>24278.63799663737</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>88171.83289177583</v>
+        <v>88171.83289177585</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8424,7 +8424,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>70062.42472611342</v>
+        <v>70062.4247261134</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9240,7 +9240,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>104949.0809311582</v>
+        <v>104949.0809311581</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10172,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>323365.4362031234</v>
+        <v>323365.4362031233</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10216,7 +10216,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>606979.5395843362</v>
+        <v>606979.5395843363</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3141203.270583592</v>
+        <v>3141203.270583591</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13232,7 +13232,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2223881.573621644</v>
+        <v>2223881.573621645</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13276,7 +13276,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4925526.207908849</v>
+        <v>4925526.207908848</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13640,7 +13640,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2206431.317912938</v>
+        <v>2206431.317912937</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14660,7 +14660,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1954164.437322899</v>
+        <v>1954164.437322898</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6669564.268824407</v>
+        <v>6669564.268824406</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15564,7 +15564,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1360621.653376555</v>
+        <v>1360621.653376556</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16132,7 +16132,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7210296.409583684</v>
+        <v>7210296.409583683</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17108,7 +17108,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1545798.294207497</v>
+        <v>1545798.294207498</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17356,7 +17356,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6992467.28075561</v>
+        <v>6992467.280755608</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17472,7 +17472,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2585429.736391005</v>
+        <v>2585429.736391004</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17560,7 +17560,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7034531.554679396</v>
+        <v>7034531.554679397</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17676,7 +17676,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2582922.919503106</v>
+        <v>2582922.919503105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18376,7 +18376,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7494274.582935493</v>
+        <v>7494274.582935495</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19396,7 +19396,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8385491.840524622</v>
+        <v>8385491.840524624</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19964,7 +19964,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2349715.179972822</v>
+        <v>2349715.179972821</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20372,7 +20372,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2237722.402301304</v>
+        <v>2237722.402301303</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9672903.971077694</v>
+        <v>9672903.971077695</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20532,7 +20532,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2505406.88347643</v>
+        <v>2505406.883476431</v>
       </c>
     </row>
     <row r="5" spans="1:4">
